--- a/biology/Écologie/Hétérogénéité_spatiale/Hétérogénéité_spatiale.xlsx
+++ b/biology/Écologie/Hétérogénéité_spatiale/Hétérogénéité_spatiale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9t%C3%A9rog%C3%A9n%C3%A9it%C3%A9_spatiale</t>
+          <t>Hétérogénéité_spatiale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hétérogénéité spatiale est l'hétérogénéité des paysages ou des populations en géographie ou en écologie, représentant la répartition des diverses concentrations de chaque espèce dans une zone. 
 Une hétérogénéité paysagère illustre ainsi une variation de concentrations de plusieurs espèces de plantes ou d'animaux (biologiques), ou de formations de terrain (géologiques), ou de caractéristiques environnementales (par exemple précipitations, température, vent). 
